--- a/Sprint5_Backlog.xlsx
+++ b/Sprint5_Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21607"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D6BA43-AD82-47DC-9A54-2A565F648C8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF99EB56-7C07-4734-8A19-4A8B9D63E115}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="16275" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Unique ID</t>
   </si>
@@ -51,6 +51,12 @@
     <t>youssef abo bakr</t>
   </si>
   <si>
+    <t>mohamed atef</t>
+  </si>
+  <si>
+    <t>omar fatayry</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a logged in investor, I want to update the form after being disapproved and commented on by the establishment lawyer so that I can fix any mistakes stated by the lawyer and continue with the process of establishing the company. </t>
   </si>
   <si>
@@ -63,6 +69,9 @@
     <t>ahmed hesham</t>
   </si>
   <si>
+    <t>khaled moataz</t>
+  </si>
+  <si>
     <t>As a logged in establishment lawyer, I want to have access to the  application form so that I can fill a form for an investor.</t>
   </si>
   <si>
@@ -72,7 +81,7 @@
     <t>As a logged in establishment lawyer, I want to review applications filled by the investor and assigned to me so that I can approve or disapprove them.</t>
   </si>
   <si>
-    <t>mohamed atef</t>
+    <t>andrew</t>
   </si>
   <si>
     <t>As a logged in establishment lawyer, I want to update the forms that are assigned to me after being disapproved and commented on by the reviewer so that I can fix mentioned mistakes from the reviewer and the process of establishing the company can continue.</t>
@@ -99,10 +108,10 @@
     <t xml:space="preserve">omar fatayry </t>
   </si>
   <si>
+    <t>reyad</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a logged in entity employee, I want to sort the task items assigned to me by case ID or case creation date so that I can easily filter my tasks. </t>
-  </si>
-  <si>
-    <t>andrew</t>
   </si>
   <si>
     <t>As a logged in investor, I want to be able to choose which type of company  I want to establish so that I can fill the right application form.</t>
@@ -551,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,18 +605,30 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -616,13 +637,19 @@
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -630,13 +657,19 @@
         <v>1.4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -644,13 +677,19 @@
         <v>1.5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -658,13 +697,19 @@
         <v>1.6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -672,13 +717,19 @@
         <v>1.7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -686,13 +737,19 @@
         <v>1.8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -700,13 +757,19 @@
         <v>1.9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -714,13 +777,19 @@
         <v>1.91</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -728,13 +797,19 @@
         <v>1.92</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -742,13 +817,19 @@
         <v>1.93</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -756,18 +837,24 @@
         <v>1.94</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -775,55 +862,76 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>2.1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2.2999999999999998</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
